--- a/Code/Results/Cases/Case_2_97/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_97/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.72132055654762</v>
+        <v>14.36854692522047</v>
       </c>
       <c r="C2">
-        <v>13.70479740579342</v>
+        <v>12.38021239343275</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.523940411477585</v>
+        <v>13.06137553685492</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>13.74743065178589</v>
+        <v>21.85900228799304</v>
       </c>
       <c r="H2">
-        <v>7.051742817014999</v>
+        <v>12.72181295168823</v>
       </c>
       <c r="I2">
-        <v>10.87843973748025</v>
+        <v>19.81728697229302</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.215515281290989</v>
+        <v>9.947110547675999</v>
       </c>
       <c r="M2">
-        <v>12.37849974411778</v>
+        <v>13.92508164092805</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.41667376275359</v>
+        <v>18.41651148181071</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.31509581693967</v>
+        <v>13.70205755039805</v>
       </c>
       <c r="C3">
-        <v>13.19745681695545</v>
+        <v>12.20115111110407</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.689534130555973</v>
+        <v>13.12579840729361</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>13.87735717715682</v>
+        <v>22.06025434247227</v>
       </c>
       <c r="H3">
-        <v>7.199095408874976</v>
+        <v>12.78862197609126</v>
       </c>
       <c r="I3">
-        <v>11.29584541182578</v>
+        <v>19.96867562853138</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.135889426600129</v>
+        <v>9.955489349794986</v>
       </c>
       <c r="M3">
-        <v>11.67827049224659</v>
+        <v>13.76584757187563</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.64271481517241</v>
+        <v>18.54268540590802</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.40030199722772</v>
+        <v>13.27523495086323</v>
       </c>
       <c r="C4">
-        <v>12.87691214599446</v>
+        <v>12.09022848278583</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.794628981759876</v>
+        <v>13.16745884363122</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>13.99486525602209</v>
+        <v>22.19407283931687</v>
       </c>
       <c r="H4">
-        <v>7.294888683669804</v>
+        <v>12.83207369598199</v>
       </c>
       <c r="I4">
-        <v>11.56005585618759</v>
+        <v>20.0663903939381</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.089323237723919</v>
+        <v>9.962017909403553</v>
       </c>
       <c r="M4">
-        <v>11.26225025457392</v>
+        <v>13.66808599680153</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.7952340040653</v>
+        <v>18.6251803314928</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.0145781903436</v>
+        <v>13.09706544313829</v>
       </c>
       <c r="C5">
-        <v>12.74417135402276</v>
+        <v>12.04482343165117</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.838327644582614</v>
+        <v>13.18496652527727</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>14.05158529470011</v>
+        <v>22.25116498426289</v>
       </c>
       <c r="H5">
-        <v>7.335220681406166</v>
+        <v>12.85039244320006</v>
       </c>
       <c r="I5">
-        <v>11.66973127785032</v>
+        <v>20.10741033457606</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.070941216566713</v>
+        <v>9.965026882052753</v>
       </c>
       <c r="M5">
-        <v>11.08852577042329</v>
+        <v>13.62828462814532</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.86064468769823</v>
+        <v>18.66005966119846</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.94974721794187</v>
+        <v>13.06723079975119</v>
       </c>
       <c r="C6">
-        <v>12.7220069391746</v>
+        <v>12.03727295078154</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.845636757933444</v>
+        <v>13.18790576094012</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>14.06151806799411</v>
+        <v>22.26079921425432</v>
       </c>
       <c r="H6">
-        <v>7.341994887121754</v>
+        <v>12.85347122754252</v>
       </c>
       <c r="I6">
-        <v>11.68806453932426</v>
+        <v>20.11429425465962</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.067925031589935</v>
+        <v>9.965547584251212</v>
       </c>
       <c r="M6">
-        <v>11.05943069209845</v>
+        <v>13.62167891594408</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.87169749553374</v>
+        <v>18.66592753271707</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.39515239694654</v>
+        <v>13.27284897417387</v>
       </c>
       <c r="C7">
-        <v>12.87513030667338</v>
+        <v>12.08961689997533</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.79521477255283</v>
+        <v>13.16769280748447</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>13.99559529675077</v>
+        <v>22.19483246099328</v>
       </c>
       <c r="H7">
-        <v>7.295427421672645</v>
+        <v>12.83231827097622</v>
       </c>
       <c r="I7">
-        <v>11.56152682681449</v>
+        <v>20.06693873884012</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.089072914225626</v>
+        <v>9.962057077618978</v>
       </c>
       <c r="M7">
-        <v>11.2599241019509</v>
+        <v>13.66754902444616</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.7961032086575</v>
+        <v>18.62564561822728</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.2470990551034</v>
+        <v>14.14249758609642</v>
       </c>
       <c r="C8">
-        <v>13.53182960703156</v>
+        <v>12.31870055604495</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.580334584504018</v>
+        <v>13.08315265973703</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>13.78400703315291</v>
+        <v>21.9262564425008</v>
       </c>
       <c r="H8">
-        <v>7.101419527282758</v>
+        <v>12.74434456707947</v>
       </c>
       <c r="I8">
-        <v>11.02072580066311</v>
+        <v>19.86849937314585</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.187583972237045</v>
+        <v>9.949712656742651</v>
       </c>
       <c r="M8">
-        <v>12.12775245950921</v>
+        <v>13.87019693187512</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.49164081229731</v>
+        <v>18.45897282692384</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.47269222704535</v>
+        <v>15.7013771168245</v>
       </c>
       <c r="C9">
-        <v>14.74198447574858</v>
+        <v>12.75833330888829</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.185534279510504</v>
+        <v>12.93399889167358</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>13.69674981723012</v>
+        <v>21.4816784657137</v>
       </c>
       <c r="H9">
-        <v>6.76531589618134</v>
+        <v>12.59108765662678</v>
       </c>
       <c r="I9">
-        <v>10.02249677945326</v>
+        <v>19.51700003741524</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.398736218290439</v>
+        <v>9.936461202510106</v>
       </c>
       <c r="M9">
-        <v>13.84023248146045</v>
+        <v>14.26612503315019</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.01319165762929</v>
+        <v>18.17204569482694</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.59764920265287</v>
+        <v>16.74984920665653</v>
       </c>
       <c r="C10">
-        <v>15.5770123247093</v>
+        <v>13.07309377354762</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.910874578074885</v>
+        <v>12.83445583410334</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>13.86791025430433</v>
+        <v>21.20617807305492</v>
       </c>
       <c r="H10">
-        <v>6.548847141605027</v>
+        <v>12.4901924853882</v>
       </c>
       <c r="I10">
-        <v>9.326574863259019</v>
+        <v>19.28150066474069</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.564148613691636</v>
+        <v>9.933368002037749</v>
       </c>
       <c r="M10">
-        <v>14.97605028329794</v>
+        <v>14.55408810231274</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.748743356323263</v>
+        <v>17.98565644226765</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.5118709640002</v>
+        <v>17.20461920369613</v>
       </c>
       <c r="C11">
-        <v>15.94403630473948</v>
+        <v>13.21401735816459</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.789086290257608</v>
+        <v>12.79133054195387</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>14.00311360659864</v>
+        <v>21.09218612489348</v>
       </c>
       <c r="H11">
-        <v>6.457892441669243</v>
+        <v>12.44682615232396</v>
       </c>
       <c r="I11">
-        <v>9.018155221180214</v>
+        <v>19.17926310338223</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.641478068059651</v>
+        <v>9.933394027862951</v>
       </c>
       <c r="M11">
-        <v>15.46628798799476</v>
+        <v>14.68403278409715</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.650970767691359</v>
+        <v>17.90618445706001</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.85058486783403</v>
+        <v>17.37356197757233</v>
       </c>
       <c r="C12">
-        <v>16.08109907817469</v>
+        <v>13.26701789621204</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.743406766069569</v>
+        <v>12.77530878318376</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>14.06294831589326</v>
+        <v>21.05067036373958</v>
       </c>
       <c r="H12">
-        <v>6.42462002363123</v>
+        <v>12.43076799902094</v>
       </c>
       <c r="I12">
-        <v>8.902556750875842</v>
+        <v>19.14124881368615</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.67104708378774</v>
+        <v>9.933609043015972</v>
       </c>
       <c r="M12">
-        <v>15.64813986500072</v>
+        <v>14.73305384527028</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9.617514643114234</v>
+        <v>17.87685710005552</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.77796857244033</v>
+        <v>17.33732361060203</v>
       </c>
       <c r="C13">
-        <v>16.05166667563746</v>
+        <v>13.25562007862961</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.753225382279809</v>
+        <v>12.7787456409519</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>14.04967263274849</v>
+        <v>21.05953778794106</v>
       </c>
       <c r="H13">
-        <v>6.431732252071928</v>
+        <v>12.43421023642046</v>
       </c>
       <c r="I13">
-        <v>8.927399394032772</v>
+        <v>19.14940474212661</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.66466635610263</v>
+        <v>9.933553626683846</v>
       </c>
       <c r="M13">
-        <v>15.60914312199964</v>
+        <v>14.72250511037303</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.624555874281612</v>
+        <v>17.88313912220236</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.539886767199</v>
+        <v>17.21858413853714</v>
       </c>
       <c r="C14">
-        <v>15.95535143449337</v>
+        <v>13.21838525913146</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.785319495320789</v>
+        <v>12.79000624013887</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>14.0078612943235</v>
+        <v>21.08873740055674</v>
       </c>
       <c r="H14">
-        <v>6.455131097797992</v>
+        <v>12.4454977500334</v>
       </c>
       <c r="I14">
-        <v>9.008620780672274</v>
+        <v>19.17612161372095</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.643905072055197</v>
+        <v>9.933407611157961</v>
       </c>
       <c r="M14">
-        <v>15.48132492263471</v>
+        <v>14.68806970473832</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.648144845402946</v>
+        <v>17.90375629303524</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.39308218556834</v>
+        <v>17.14542500275232</v>
       </c>
       <c r="C15">
-        <v>15.89610333721864</v>
+        <v>13.19552930846517</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.805034797727918</v>
+        <v>12.7969438636628</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>13.98338515022313</v>
+        <v>21.106838568002</v>
       </c>
       <c r="H15">
-        <v>6.469618790564015</v>
+        <v>12.45245903960578</v>
       </c>
       <c r="I15">
-        <v>9.058527483004811</v>
+        <v>19.19257766321873</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.631225042508183</v>
+        <v>9.933344861503739</v>
       </c>
       <c r="M15">
-        <v>15.40253943991502</v>
+        <v>14.66695175599314</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.66306856116578</v>
+        <v>17.9164848570703</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.53685242514966</v>
+        <v>16.71967545478731</v>
       </c>
       <c r="C16">
-        <v>15.55276142121799</v>
+        <v>13.0638352021457</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.918895983827563</v>
+        <v>12.83731746725549</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>13.86026396504471</v>
+        <v>21.21385755276818</v>
       </c>
       <c r="H16">
-        <v>6.554949887958374</v>
+        <v>12.49307749099814</v>
       </c>
       <c r="I16">
-        <v>9.346896388103755</v>
+        <v>19.28828034775923</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.559135702648095</v>
+        <v>9.933395062452519</v>
       </c>
       <c r="M16">
-        <v>14.94348081746929</v>
+        <v>14.54557174632988</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.755613975106938</v>
+        <v>17.9909573191628</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.99819377756119</v>
+        <v>16.45274925063275</v>
       </c>
       <c r="C17">
-        <v>15.33878711941667</v>
+        <v>12.98243750659256</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.989544088126562</v>
+        <v>12.86263693429327</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>13.79972951279053</v>
+        <v>21.28242788490989</v>
       </c>
       <c r="H17">
-        <v>6.609283202927566</v>
+        <v>12.51864373841451</v>
       </c>
       <c r="I17">
-        <v>9.525901056445727</v>
+        <v>19.34824197909897</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.515434972203692</v>
+        <v>9.933792288286343</v>
       </c>
       <c r="M17">
-        <v>14.65509584163607</v>
+        <v>14.47081462434462</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.818384724909386</v>
+        <v>18.03800729519545</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.68343270832438</v>
+        <v>16.29713589192679</v>
       </c>
       <c r="C18">
-        <v>15.21451039382716</v>
+        <v>12.93540896503441</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.030476961392205</v>
+        <v>12.877403162638</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>13.77029167971624</v>
+        <v>21.32293334051664</v>
       </c>
       <c r="H18">
-        <v>6.641235942229562</v>
+        <v>12.53358704813293</v>
       </c>
       <c r="I18">
-        <v>9.629625818362166</v>
+        <v>19.38319096429685</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.490496281947207</v>
+        <v>9.934155716155161</v>
       </c>
       <c r="M18">
-        <v>14.48673349256188</v>
+        <v>14.42771940697929</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.856588047379915</v>
+        <v>18.06556955167222</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.57601007909368</v>
+        <v>16.24409250196172</v>
       </c>
       <c r="C19">
-        <v>15.17222809639775</v>
+        <v>12.9194509238383</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.044387742883358</v>
+        <v>12.88243768536938</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>13.76123498952232</v>
+        <v>21.33683018755799</v>
       </c>
       <c r="H19">
-        <v>6.652172566452647</v>
+        <v>12.53868752983961</v>
       </c>
       <c r="I19">
-        <v>9.664876413829973</v>
+        <v>19.39510328705124</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.482086686729669</v>
+        <v>9.934301971917026</v>
       </c>
       <c r="M19">
-        <v>14.4293007682926</v>
+        <v>14.41311254581421</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.869873891850403</v>
+        <v>18.07498752577028</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.05604565961263</v>
+        <v>16.4813803488975</v>
       </c>
       <c r="C20">
-        <v>15.36169028534859</v>
+        <v>12.99112452746531</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.981992744963337</v>
+        <v>12.85992061947945</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>13.80561354567878</v>
+        <v>21.2750180202762</v>
       </c>
       <c r="H20">
-        <v>6.603426100507705</v>
+        <v>12.51589750869158</v>
       </c>
       <c r="I20">
-        <v>9.506766323674377</v>
+        <v>19.34181130579212</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.520066718343186</v>
+        <v>9.933736042117596</v>
       </c>
       <c r="M20">
-        <v>14.68605264022809</v>
+        <v>14.47878293264105</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.811483088041459</v>
+        <v>18.03294694365222</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.61001974522432</v>
+        <v>17.25355006980678</v>
       </c>
       <c r="C21">
-        <v>15.98369423764739</v>
+        <v>13.22933221259774</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.775880880643756</v>
+        <v>12.78669035786268</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>14.01990531681259</v>
+        <v>21.0801158065853</v>
       </c>
       <c r="H21">
-        <v>6.448225766062386</v>
+        <v>12.44217246400853</v>
       </c>
       <c r="I21">
-        <v>8.984731469125284</v>
+        <v>19.16825522078704</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.649995507051794</v>
+        <v>9.933444939240248</v>
       </c>
       <c r="M21">
-        <v>15.51897096556595</v>
+        <v>14.69818954521728</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.641116632929627</v>
+        <v>17.8976796960666</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.58205019834597</v>
+        <v>17.73912779911684</v>
       </c>
       <c r="C22">
-        <v>16.37898494375153</v>
+        <v>13.38287526341328</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.643726792890216</v>
+        <v>12.74062975551217</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>14.21040195268736</v>
+        <v>20.96236612644912</v>
       </c>
       <c r="H22">
-        <v>6.353663530089237</v>
+        <v>12.39610891256663</v>
       </c>
       <c r="I22">
-        <v>8.650528249678324</v>
+        <v>19.05891021079787</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.736572754387805</v>
+        <v>9.934450029494046</v>
       </c>
       <c r="M22">
-        <v>16.04124732705831</v>
+        <v>14.84048373544322</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.550736544362866</v>
+        <v>17.81374631553919</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.06722686828101</v>
+        <v>17.48173407220829</v>
       </c>
       <c r="C23">
-        <v>16.16905969522998</v>
+        <v>13.30113459467253</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.714031427449295</v>
+        <v>12.76504895122686</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>14.10401265654226</v>
+        <v>21.02432331675289</v>
       </c>
       <c r="H23">
-        <v>6.403472138705209</v>
+        <v>12.42049999634125</v>
       </c>
       <c r="I23">
-        <v>8.828249674275163</v>
+        <v>19.11689688576839</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.690217177435518</v>
+        <v>9.933804545854818</v>
       </c>
       <c r="M23">
-        <v>15.76451346829727</v>
+        <v>14.76465069045364</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.596942260077679</v>
+        <v>17.85813319255319</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.02990664811897</v>
+        <v>16.46844293228846</v>
       </c>
       <c r="C24">
-        <v>15.35133968292313</v>
+        <v>12.98719784475981</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.985405720779242</v>
+        <v>12.86114801201652</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>13.80293669697869</v>
+        <v>21.27836464674904</v>
       </c>
       <c r="H24">
-        <v>6.606071873572461</v>
+        <v>12.51713831617128</v>
       </c>
       <c r="I24">
-        <v>9.515414606620393</v>
+        <v>19.34471712951294</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.517972127278529</v>
+        <v>9.933761050253779</v>
       </c>
       <c r="M24">
-        <v>14.67206506499031</v>
+        <v>14.47518082019387</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.814596753195703</v>
+        <v>18.03523313204316</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.64330642452324</v>
+        <v>15.29620385790961</v>
       </c>
       <c r="C25">
-        <v>14.4236753143792</v>
+        <v>12.64067970669877</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.289574038273325</v>
+        <v>12.9725787787003</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>13.68141337279604</v>
+        <v>21.59304879467273</v>
       </c>
       <c r="H25">
-        <v>6.851167256213722</v>
+        <v>12.63048994809079</v>
       </c>
       <c r="I25">
-        <v>10.28594766328681</v>
+        <v>19.60808104155602</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.339757382466965</v>
+        <v>9.938876623943942</v>
       </c>
       <c r="M25">
-        <v>13.39844985885105</v>
+        <v>14.1593842038862</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.12848643618438</v>
+        <v>18.24538564499954</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_97/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_97/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.36854692522047</v>
+        <v>21.72132055654766</v>
       </c>
       <c r="C2">
-        <v>12.38021239343275</v>
+        <v>13.70479740579337</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.06137553685492</v>
+        <v>7.523940411477521</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>21.85900228799304</v>
+        <v>13.74743065178606</v>
       </c>
       <c r="H2">
-        <v>12.72181295168823</v>
+        <v>7.051742817015072</v>
       </c>
       <c r="I2">
-        <v>19.81728697229302</v>
+        <v>10.87843973748033</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.947110547675999</v>
+        <v>6.215515281290912</v>
       </c>
       <c r="M2">
-        <v>13.92508164092805</v>
+        <v>12.37849974411781</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.41651148181071</v>
+        <v>10.41667376275368</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.70205755039805</v>
+        <v>20.3150958169397</v>
       </c>
       <c r="C3">
-        <v>12.20115111110407</v>
+        <v>13.19745681695545</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.12579840729361</v>
+        <v>7.689534130555972</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>22.06025434247227</v>
+        <v>13.87735717715675</v>
       </c>
       <c r="H3">
-        <v>12.78862197609126</v>
+        <v>7.199095408874921</v>
       </c>
       <c r="I3">
-        <v>19.96867562853138</v>
+        <v>11.29584541182569</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.955489349794986</v>
+        <v>6.135889426600103</v>
       </c>
       <c r="M3">
-        <v>13.76584757187563</v>
+        <v>11.67827049224656</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.54268540590802</v>
+        <v>10.64271481517234</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.27523495086323</v>
+        <v>19.40030199722766</v>
       </c>
       <c r="C4">
-        <v>12.09022848278583</v>
+        <v>12.87691214599446</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.16745884363122</v>
+        <v>7.794628981759876</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>22.19407283931687</v>
+        <v>13.9948652560224</v>
       </c>
       <c r="H4">
-        <v>12.83207369598199</v>
+        <v>7.294888683669858</v>
       </c>
       <c r="I4">
-        <v>20.0663903939381</v>
+        <v>11.56005585618779</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.962017909403553</v>
+        <v>6.089323237723946</v>
       </c>
       <c r="M4">
-        <v>13.66808599680153</v>
+        <v>11.26225025457395</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.6251803314928</v>
+        <v>10.79523400406547</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.09706544313829</v>
+        <v>19.01457819034362</v>
       </c>
       <c r="C5">
-        <v>12.04482343165117</v>
+        <v>12.74417135402248</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.18496652527727</v>
+        <v>7.838327644582479</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>22.25116498426289</v>
+        <v>14.0515852947001</v>
       </c>
       <c r="H5">
-        <v>12.85039244320006</v>
+        <v>7.335220681406105</v>
       </c>
       <c r="I5">
-        <v>20.10741033457606</v>
+        <v>11.66973127785016</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.965026882052753</v>
+        <v>6.070941216566701</v>
       </c>
       <c r="M5">
-        <v>13.62828462814532</v>
+        <v>11.08852577042328</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.66005966119846</v>
+        <v>10.8606446876982</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.06723079975119</v>
+        <v>18.94974721794183</v>
       </c>
       <c r="C6">
-        <v>12.03727295078154</v>
+        <v>12.72200693917468</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.18790576094012</v>
+        <v>7.845636757933512</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>22.26079921425432</v>
+        <v>14.06151806799403</v>
       </c>
       <c r="H6">
-        <v>12.85347122754252</v>
+        <v>7.341994887121754</v>
       </c>
       <c r="I6">
-        <v>20.11429425465962</v>
+        <v>11.68806453932427</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.965547584251212</v>
+        <v>6.06792503158996</v>
       </c>
       <c r="M6">
-        <v>13.62167891594408</v>
+        <v>11.05943069209847</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.66592753271707</v>
+        <v>10.87169749553369</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.27284897417387</v>
+        <v>19.39515239694645</v>
       </c>
       <c r="C7">
-        <v>12.08961689997533</v>
+        <v>12.87513030667343</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.16769280748447</v>
+        <v>7.795214772552899</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>22.19483246099328</v>
+        <v>13.99559529675109</v>
       </c>
       <c r="H7">
-        <v>12.83231827097622</v>
+        <v>7.295427421672781</v>
       </c>
       <c r="I7">
-        <v>20.06693873884012</v>
+        <v>11.5615268268148</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.962057077618978</v>
+        <v>6.089072914225595</v>
       </c>
       <c r="M7">
-        <v>13.66754902444616</v>
+        <v>11.25992410195091</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.62564561822728</v>
+        <v>10.79610320865778</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.14249758609642</v>
+        <v>21.24709905510344</v>
       </c>
       <c r="C8">
-        <v>12.31870055604495</v>
+        <v>13.5318296070317</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.08315265973703</v>
+        <v>7.580334584504087</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>21.9262564425008</v>
+        <v>13.78400703315296</v>
       </c>
       <c r="H8">
-        <v>12.74434456707947</v>
+        <v>7.101419527282767</v>
       </c>
       <c r="I8">
-        <v>19.86849937314585</v>
+        <v>11.02072580066318</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.949712656742651</v>
+        <v>6.187583972237061</v>
       </c>
       <c r="M8">
-        <v>13.87019693187512</v>
+        <v>12.1277524595092</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.45897282692384</v>
+        <v>10.49164081229733</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.7013771168245</v>
+        <v>24.47269222704538</v>
       </c>
       <c r="C9">
-        <v>12.75833330888829</v>
+        <v>14.7419844757485</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.93399889167358</v>
+        <v>7.185534279510637</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>21.4816784657137</v>
+        <v>13.6967498172303</v>
       </c>
       <c r="H9">
-        <v>12.59108765662678</v>
+        <v>6.76531589618134</v>
       </c>
       <c r="I9">
-        <v>19.51700003741524</v>
+        <v>10.02249677945326</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.936461202510106</v>
+        <v>6.398736218290544</v>
       </c>
       <c r="M9">
-        <v>14.26612503315019</v>
+        <v>13.84023248146044</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.17204569482694</v>
+        <v>10.01319165762935</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.74984920665653</v>
+        <v>26.5976492026529</v>
       </c>
       <c r="C10">
-        <v>13.07309377354762</v>
+        <v>15.57701232470921</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.83445583410334</v>
+        <v>6.910874578074819</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>21.20617807305492</v>
+        <v>13.86791025430432</v>
       </c>
       <c r="H10">
-        <v>12.4901924853882</v>
+        <v>6.548847141604986</v>
       </c>
       <c r="I10">
-        <v>19.28150066474069</v>
+        <v>9.32657486325899</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.933368002037749</v>
+        <v>6.564148613691597</v>
       </c>
       <c r="M10">
-        <v>14.55408810231274</v>
+        <v>14.97605028329798</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.98565644226765</v>
+        <v>9.748743356323255</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.20461920369613</v>
+        <v>27.51187096400022</v>
       </c>
       <c r="C11">
-        <v>13.21401735816459</v>
+        <v>15.94403630473941</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.79133054195387</v>
+        <v>6.789086290257475</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>21.09218612489348</v>
+        <v>14.00311360659862</v>
       </c>
       <c r="H11">
-        <v>12.44682615232396</v>
+        <v>6.457892441669187</v>
       </c>
       <c r="I11">
-        <v>19.17926310338223</v>
+        <v>9.018155221180116</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.933394027862951</v>
+        <v>6.641478068059614</v>
       </c>
       <c r="M11">
-        <v>14.68403278409715</v>
+        <v>15.46628798799479</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.90618445706001</v>
+        <v>9.650970767691264</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.37356197757233</v>
+        <v>27.85058486783398</v>
       </c>
       <c r="C12">
-        <v>13.26701789621204</v>
+        <v>16.08109907817474</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.77530878318376</v>
+        <v>6.743406766069569</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>21.05067036373958</v>
+        <v>14.0629483158934</v>
       </c>
       <c r="H12">
-        <v>12.43076799902094</v>
+        <v>6.424620023631286</v>
       </c>
       <c r="I12">
-        <v>19.14124881368615</v>
+        <v>8.902556750875975</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.933609043015972</v>
+        <v>6.671047083787694</v>
       </c>
       <c r="M12">
-        <v>14.73305384527028</v>
+        <v>15.64813986500068</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.87685710005552</v>
+        <v>9.617514643114378</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.33732361060203</v>
+        <v>27.77796857244027</v>
       </c>
       <c r="C13">
-        <v>13.25562007862961</v>
+        <v>16.05166667563738</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.7787456409519</v>
+        <v>6.753225382279743</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>21.05953778794106</v>
+        <v>14.04967263274873</v>
       </c>
       <c r="H13">
-        <v>12.43421023642046</v>
+        <v>6.431732252071982</v>
       </c>
       <c r="I13">
-        <v>19.14940474212661</v>
+        <v>8.92739939403303</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.933553626683846</v>
+        <v>6.664666356102655</v>
       </c>
       <c r="M13">
-        <v>14.72250511037303</v>
+        <v>15.6091431219996</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.88313912220236</v>
+        <v>9.624555874281834</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.21858413853714</v>
+        <v>27.539886767199</v>
       </c>
       <c r="C14">
-        <v>13.21838525913146</v>
+        <v>15.95535143449335</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.79000624013887</v>
+        <v>6.785319495320789</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>21.08873740055674</v>
+        <v>14.00786129432346</v>
       </c>
       <c r="H14">
-        <v>12.4454977500334</v>
+        <v>6.455131097797988</v>
       </c>
       <c r="I14">
-        <v>19.17612161372095</v>
+        <v>9.008620780672247</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.933407611157961</v>
+        <v>6.643905072055199</v>
       </c>
       <c r="M14">
-        <v>14.68806970473832</v>
+        <v>15.48132492263472</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.90375629303524</v>
+        <v>9.648144845402937</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.14542500275232</v>
+        <v>27.39308218556829</v>
       </c>
       <c r="C15">
-        <v>13.19552930846517</v>
+        <v>15.89610333721863</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.7969438636628</v>
+        <v>6.80503479772792</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>21.106838568002</v>
+        <v>13.9833851502233</v>
       </c>
       <c r="H15">
-        <v>12.45245903960578</v>
+        <v>6.469618790564074</v>
       </c>
       <c r="I15">
-        <v>19.19257766321873</v>
+        <v>9.058527483005006</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.933344861503739</v>
+        <v>6.631225042508198</v>
       </c>
       <c r="M15">
-        <v>14.66695175599314</v>
+        <v>15.40253943991499</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.9164848570703</v>
+        <v>9.66306856116595</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.71967545478731</v>
+        <v>26.53685242514966</v>
       </c>
       <c r="C16">
-        <v>13.0638352021457</v>
+        <v>15.55276142121802</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.83731746725549</v>
+        <v>6.918895983827497</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>21.21385755276818</v>
+        <v>13.86026396504479</v>
       </c>
       <c r="H16">
-        <v>12.49307749099814</v>
+        <v>6.554949887958377</v>
       </c>
       <c r="I16">
-        <v>19.28828034775923</v>
+        <v>9.346896388103824</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.933395062452519</v>
+        <v>6.559135702648044</v>
       </c>
       <c r="M16">
-        <v>14.54557174632988</v>
+        <v>14.94348081746929</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.9909573191628</v>
+        <v>9.755613975106998</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.45274925063275</v>
+        <v>25.99819377756123</v>
       </c>
       <c r="C17">
-        <v>12.98243750659256</v>
+        <v>15.33878711941651</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.86263693429327</v>
+        <v>6.989544088126632</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>21.28242788490989</v>
+        <v>13.79972951279049</v>
       </c>
       <c r="H17">
-        <v>12.51864373841451</v>
+        <v>6.609283202927569</v>
       </c>
       <c r="I17">
-        <v>19.34824197909897</v>
+        <v>9.525901056445631</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.933792288286343</v>
+        <v>6.515434972203702</v>
       </c>
       <c r="M17">
-        <v>14.47081462434462</v>
+        <v>14.65509584163605</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.03800729519545</v>
+        <v>9.818384724909341</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.29713589192679</v>
+        <v>25.68343270832443</v>
       </c>
       <c r="C18">
-        <v>12.93540896503441</v>
+        <v>15.21451039382706</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.877403162638</v>
+        <v>7.03047696139214</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>21.32293334051664</v>
+        <v>13.7702916797163</v>
       </c>
       <c r="H18">
-        <v>12.53358704813293</v>
+        <v>6.641235942229507</v>
       </c>
       <c r="I18">
-        <v>19.38319096429685</v>
+        <v>9.629625818362138</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.934155716155161</v>
+        <v>6.490496281947202</v>
       </c>
       <c r="M18">
-        <v>14.42771940697929</v>
+        <v>14.48673349256189</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.06556955167222</v>
+        <v>9.856588047379923</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.24409250196172</v>
+        <v>25.57601007909365</v>
       </c>
       <c r="C19">
-        <v>12.9194509238383</v>
+        <v>15.17222809639769</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.88243768536938</v>
+        <v>7.044387742883426</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>21.33683018755799</v>
+        <v>13.7612349895226</v>
       </c>
       <c r="H19">
-        <v>12.53868752983961</v>
+        <v>6.65217256645272</v>
       </c>
       <c r="I19">
-        <v>19.39510328705124</v>
+        <v>9.664876413830086</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.934301971917026</v>
+        <v>6.482086686729698</v>
       </c>
       <c r="M19">
-        <v>14.41311254581421</v>
+        <v>14.42930076829258</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.07498752577028</v>
+        <v>9.86987389185051</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.4813803488975</v>
+        <v>26.05604565961254</v>
       </c>
       <c r="C20">
-        <v>12.99112452746531</v>
+        <v>15.36169028534887</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.85992061947945</v>
+        <v>6.981992744963406</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>21.2750180202762</v>
+        <v>13.80561354567887</v>
       </c>
       <c r="H20">
-        <v>12.51589750869158</v>
+        <v>6.60342610050772</v>
       </c>
       <c r="I20">
-        <v>19.34181130579212</v>
+        <v>9.506766323674547</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.933736042117596</v>
+        <v>6.520066718343143</v>
       </c>
       <c r="M20">
-        <v>14.47878293264105</v>
+        <v>14.68605264022805</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.03294694365222</v>
+        <v>9.811483088041514</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.25355006980678</v>
+        <v>27.61001974522432</v>
       </c>
       <c r="C21">
-        <v>13.22933221259774</v>
+        <v>15.98369423764744</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.78669035786268</v>
+        <v>6.775880880643957</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>21.0801158065853</v>
+        <v>14.0199053168126</v>
       </c>
       <c r="H21">
-        <v>12.44217246400853</v>
+        <v>6.448225766062395</v>
       </c>
       <c r="I21">
-        <v>19.16825522078704</v>
+        <v>8.984731469125322</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.933444939240248</v>
+        <v>6.649995507051816</v>
       </c>
       <c r="M21">
-        <v>14.69818954521728</v>
+        <v>15.51897096556593</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.8976796960666</v>
+        <v>9.64111663292964</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.73912779911684</v>
+        <v>28.58205019834599</v>
       </c>
       <c r="C22">
-        <v>13.38287526341328</v>
+        <v>16.37898494375163</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.74062975551217</v>
+        <v>6.643726792890215</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>20.96236612644912</v>
+        <v>14.21040195268733</v>
       </c>
       <c r="H22">
-        <v>12.39610891256663</v>
+        <v>6.353663530089229</v>
       </c>
       <c r="I22">
-        <v>19.05891021079787</v>
+        <v>8.650528249678349</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.934450029494046</v>
+        <v>6.73657275438776</v>
       </c>
       <c r="M22">
-        <v>14.84048373544322</v>
+        <v>16.04124732705834</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.81374631553919</v>
+        <v>9.550736544362827</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.48173407220829</v>
+        <v>28.06722686828104</v>
       </c>
       <c r="C23">
-        <v>13.30113459467253</v>
+        <v>16.16905969522999</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.76504895122686</v>
+        <v>6.714031427449295</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>21.02432331675289</v>
+        <v>14.10401265654229</v>
       </c>
       <c r="H23">
-        <v>12.42049999634125</v>
+        <v>6.403472138705155</v>
       </c>
       <c r="I23">
-        <v>19.11689688576839</v>
+        <v>8.828249674275106</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.933804545854818</v>
+        <v>6.690217177435488</v>
       </c>
       <c r="M23">
-        <v>14.76465069045364</v>
+        <v>15.76451346829728</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.85813319255319</v>
+        <v>9.596942260077645</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.46844293228846</v>
+        <v>26.02990664811898</v>
       </c>
       <c r="C24">
-        <v>12.98719784475981</v>
+        <v>15.35133968292313</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.86114801201652</v>
+        <v>6.985405720779242</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>21.27836464674904</v>
+        <v>13.80293669697869</v>
       </c>
       <c r="H24">
-        <v>12.51713831617128</v>
+        <v>6.606071873572461</v>
       </c>
       <c r="I24">
-        <v>19.34471712951294</v>
+        <v>9.515414606620395</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.933761050253779</v>
+        <v>6.517972127278535</v>
       </c>
       <c r="M24">
-        <v>14.47518082019387</v>
+        <v>14.67206506499031</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.03523313204316</v>
+        <v>9.814596753195705</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.29620385790961</v>
+        <v>23.64330642452326</v>
       </c>
       <c r="C25">
-        <v>12.64067970669877</v>
+        <v>14.42367531437902</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.9725787787003</v>
+        <v>7.28957403827319</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>21.59304879467273</v>
+        <v>13.68141337279609</v>
       </c>
       <c r="H25">
-        <v>12.63048994809079</v>
+        <v>6.851167256213726</v>
       </c>
       <c r="I25">
-        <v>19.60808104155602</v>
+        <v>10.28594766328678</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.938876623943942</v>
+        <v>6.339757382466912</v>
       </c>
       <c r="M25">
-        <v>14.1593842038862</v>
+        <v>13.39844985885107</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.24538564499954</v>
+        <v>10.1284864361844</v>
       </c>
     </row>
   </sheetData>
